--- a/ITI/PIXm/StructureDefinition-IHE.PIXm.Query.Audit.Consumer.xlsx
+++ b/ITI/PIXm/StructureDefinition-IHE.PIXm.Query.Audit.Consumer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T07:50:28-06:00</t>
+    <t>2021-11-08T19:38:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/PIXm/StructureDefinition-IHE.PIXm.Query.Audit.Consumer.xlsx
+++ b/ITI/PIXm/StructureDefinition-IHE.PIXm.Query.Audit.Consumer.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/PIXm/StructureDefinition/IHE.PIXm.Query.Audit.Consumer</t>
+    <t>https://profiles.ihe.net/ITI/PIXm/StructureDefinition/IHE.PIXm.Query.Audit.Consumer</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T19:38:05-06:00</t>
+    <t>2022-02-25T14:21:18-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/PIXm/StructureDefinition-IHE.PIXm.Query.Audit.Consumer.xlsx
+++ b/ITI/PIXm/StructureDefinition-IHE.PIXm.Query.Audit.Consumer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T14:21:18-06:00</t>
+    <t>2022-02-28T19:16:49-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
